--- a/face-server/csv/사진 크기에 따른 시간.xlsx
+++ b/face-server/csv/사진 크기에 따른 시간.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansung\Documents\GitHub\Mirror\face-server\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D9923F-EC40-4A49-ACA0-585CB4A8007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F94A0E-BF44-4D2B-BB5F-E95D54E87745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39FBC875-A0A9-40DD-9BF1-ABBE9111697F}"/>
   </bookViews>
@@ -36,132 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
-  <si>
-    <t>640x480 사진저장+크롭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2934854030609131, 0.29074859619140625</t>
-  </si>
-  <si>
-    <t>0.15594792366027832, 0.153883695602417</t>
-  </si>
-  <si>
-    <t>0.1573958396911621, 0.15524077415466309</t>
-  </si>
-  <si>
-    <t>0.15667438507080078, 0.15459394454956055</t>
-  </si>
-  <si>
-    <t>0.15401744842529297, 0.15175652503967285</t>
-  </si>
-  <si>
-    <t>0.14687466621398926, 0.14474129676818848</t>
-  </si>
-  <si>
-    <t>0.1413872241973877, 0.13925647735595703</t>
-  </si>
-  <si>
-    <t>0.1458113193511963, 0.14366531372070312</t>
-  </si>
-  <si>
-    <t>0.15165019035339355, 0.1495048999786377</t>
-  </si>
-  <si>
-    <t>0.15008902549743652, 0.14792823791503906</t>
-  </si>
-  <si>
-    <t>0.15211915969848633, 0.14996814727783203</t>
-  </si>
-  <si>
-    <t>0.14861583709716797, 0.14646077156066895</t>
-  </si>
-  <si>
-    <t>0.14848566055297852, 0.1462719440460205</t>
-  </si>
-  <si>
-    <t>0.14991140365600586, 0.14770936965942383</t>
-  </si>
-  <si>
-    <t>0.150634765625, 0.14842605590820312</t>
-  </si>
-  <si>
-    <t>0.14733195304870605, 0.14516043663024902</t>
-  </si>
-  <si>
-    <t>0.1513059139251709, 0.14916467666625977</t>
-  </si>
-  <si>
-    <t>0.15838623046875, 0.15083789825439453</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>480X320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.052570343017578125, 0.05052042007446289</t>
+    <t>320x240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05326390266418457, 0.05120849609375</t>
+    <t xml:space="preserve">640x480 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.056780099868774414, 0.05467343330383301</t>
+    <t>사진을 크롭하고 파일로 저장하는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05637812614440918, 0.05429887771606445</t>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0549008846282959, 0.05281996726989746</t>
-  </si>
-  <si>
-    <t>0.0550999641418457, 0.053028106689453125</t>
-  </si>
-  <si>
-    <t>0.055281639099121094, 0.05321168899536133</t>
-  </si>
-  <si>
-    <t>0.05647706985473633, 0.05436301231384277</t>
-  </si>
-  <si>
-    <t>0.05349159240722656, 0.05129265785217285</t>
-  </si>
-  <si>
-    <t>0.0537419319152832, 0.05164074897766113</t>
-  </si>
-  <si>
-    <t>0.053356170654296875, 0.05125594139099121</t>
-  </si>
-  <si>
-    <t>0.05927872657775879, 0.05099129676818848</t>
-  </si>
-  <si>
-    <t>0.05673360824584961, 0.05462336540222168</t>
-  </si>
-  <si>
-    <t>0.07362961769104004, 0.07132554054260254</t>
-  </si>
-  <si>
-    <t>0.05336642265319824, 0.05117630958557129</t>
-  </si>
-  <si>
-    <t>0.05664467811584473, 0.05437779426574707</t>
-  </si>
-  <si>
-    <t>0.05893588066101074, 0.05684614181518555</t>
-  </si>
-  <si>
-    <t>0.15227174758911133, 0.1501147747039795</t>
-  </si>
-  <si>
-    <t>0.1494150161743164, 0.14722228050231934</t>
+    <t>40장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +79,24 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -200,8 +123,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -219,6 +148,1012 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>이미지 크기 별 얼굴 추출 시간</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25949300087489063"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>640x480 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480X320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320x240</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.8837921619415123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.426976919174189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3060197830200182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC6F-4B10-803D-252F7CD64233}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1326898623"/>
+        <c:axId val="1326895295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326898623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>이미지 크기</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(pixel)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326895295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1326895295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>얼굴 추출 시간</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326898623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF6780C-3A43-ED5F-77C7-E8B551C2C847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,231 +1453,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86210FA9-6F1A-451B-B8A2-A6E302AA9024}">
-  <dimension ref="B3:H24"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+      <c r="B4">
+        <v>0.22534370422363201</v>
+      </c>
+      <c r="C4">
+        <v>0.139513254165649</v>
+      </c>
+      <c r="D4">
+        <v>5.6290626525878899E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.8837921619415123</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.426976919174189</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.3060197830200182</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
+      <c r="B5">
+        <v>0.176083087921142</v>
+      </c>
+      <c r="C5">
+        <v>0.13231754302978499</v>
+      </c>
+      <c r="D5">
+        <v>9.4951391220092704E-2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>0.18327522277832001</v>
+      </c>
+      <c r="C6">
+        <v>0.136254072189331</v>
+      </c>
+      <c r="D6">
+        <v>9.3869686126708901E-2</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>0.17796349525451599</v>
+      </c>
+      <c r="C7">
+        <v>0.13623690605163499</v>
+      </c>
+      <c r="D7">
+        <v>7.34121799468994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0.17485380172729401</v>
+      </c>
+      <c r="C8">
+        <v>0.13849186897277799</v>
+      </c>
+      <c r="D8">
+        <v>6.7648172378539997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>0.17556333541870101</v>
+      </c>
+      <c r="C9">
+        <v>0.132877588272094</v>
+      </c>
+      <c r="D9">
+        <v>0.100807905197143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0.16660141944885201</v>
+      </c>
+      <c r="C10">
+        <v>0.13269209861755299</v>
+      </c>
+      <c r="D10">
+        <v>7.8094720840454102E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>0.17347073554992601</v>
+      </c>
+      <c r="C11">
+        <v>0.112346410751342</v>
+      </c>
+      <c r="D11">
+        <v>5.5520772933959898E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0.16884493827819799</v>
+      </c>
+      <c r="C12">
+        <v>6.6539287567138602E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.5683135986328097E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0.16815567016601499</v>
+      </c>
+      <c r="C13">
+        <v>6.3262939453125E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.2152395248413003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0.169730424880981</v>
+      </c>
+      <c r="C14">
+        <v>6.3991069793701102E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.31742572784423E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0.174319982528686</v>
+      </c>
+      <c r="C15">
+        <v>6.8353891372680595E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.0815105438232401E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>0.167648315429687</v>
+      </c>
+      <c r="C16">
+        <v>7.4581623077392495E-2</v>
+      </c>
+      <c r="D16">
+        <v>5.25360107421875E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>0.169213056564331</v>
+      </c>
+      <c r="C17">
+        <v>6.9477796554565402E-2</v>
+      </c>
+      <c r="D17">
+        <v>5.1385641098022398E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>0.17088413238525299</v>
+      </c>
+      <c r="C18">
+        <v>8.5788965225219699E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.0665855407714802E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>0.16995143890380801</v>
+      </c>
+      <c r="C19">
+        <v>6.5285444259643499E-2</v>
+      </c>
+      <c r="D19">
+        <v>5.05008697509765E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>0.172382116317749</v>
+      </c>
+      <c r="C20">
+        <v>6.7315101623535101E-2</v>
+      </c>
+      <c r="D20">
+        <v>5.3125143051147398E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>0.17141127586364699</v>
+      </c>
+      <c r="C21">
+        <v>6.7073345184326102E-2</v>
+      </c>
+      <c r="D21">
+        <v>5.0615787506103502E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>0.17406368255615201</v>
+      </c>
+      <c r="C22">
+        <v>6.4883232116699205E-2</v>
+      </c>
+      <c r="D22">
+        <v>5.1868677139282199E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>0.17662858963012601</v>
+      </c>
+      <c r="C23">
+        <v>6.9817304611205999E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.32200336456298E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>0.17563104629516599</v>
+      </c>
+      <c r="C24">
+        <v>6.7591428756713798E-2</v>
+      </c>
+      <c r="D24">
+        <v>5.6013822555541902E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>0.17382645606994601</v>
+      </c>
+      <c r="C25">
+        <v>6.3886165618896401E-2</v>
+      </c>
+      <c r="D25">
+        <v>5.3750038146972601E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>0.17247676849365201</v>
+      </c>
+      <c r="C26">
+        <v>7.0294380187988198E-2</v>
+      </c>
+      <c r="D26">
+        <v>5.7278633117675698E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>0.16922593116760201</v>
+      </c>
+      <c r="C27">
+        <v>6.5362453460693304E-2</v>
+      </c>
+      <c r="D27">
+        <v>5.6842565536499003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>0.172631740570068</v>
+      </c>
+      <c r="C28">
+        <v>7.2258234024047796E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.5505275726318297E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>0.167528390884399</v>
+      </c>
+      <c r="C29">
+        <v>6.8105697631835896E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.4744243621826102E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>0.170986413955688</v>
+      </c>
+      <c r="C30">
+        <v>6.4091682434082003E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.4141044616699198E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>0.16421675682067799</v>
+      </c>
+      <c r="C31">
+        <v>7.2309494018554604E-2</v>
+      </c>
+      <c r="D31">
+        <v>5.1943302154541002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>0.16492652893066401</v>
+      </c>
+      <c r="C32">
+        <v>6.9927692413329995E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.2123546600341797E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>0.169338703155517</v>
+      </c>
+      <c r="C33">
+        <v>6.3387870788574205E-2</v>
+      </c>
+      <c r="D33">
+        <v>5.1929712295532199E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>0.164705514907836</v>
+      </c>
+      <c r="C34">
+        <v>6.9184303283691406E-2</v>
+      </c>
+      <c r="D34">
+        <v>5.0507068634033203E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>0.17170596122741699</v>
+      </c>
+      <c r="C35">
+        <v>6.9188833236694294E-2</v>
+      </c>
+      <c r="D35">
+        <v>5.1784992218017502E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>0.16786146163940399</v>
+      </c>
+      <c r="C36">
+        <v>6.4752817153930595E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.1127672195434501E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>0.164330244064331</v>
+      </c>
+      <c r="C37">
+        <v>6.8750858306884696E-2</v>
+      </c>
+      <c r="D37">
+        <v>5.2458524703979402E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>0.170720815658569</v>
+      </c>
+      <c r="C38">
+        <v>6.182861328125E-2</v>
+      </c>
+      <c r="D38">
+        <v>5.2067756652831997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>0.173084735870361</v>
+      </c>
+      <c r="C39">
+        <v>6.1634063720703097E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.9524784088134703E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>0.165027856826782</v>
+      </c>
+      <c r="C40">
+        <v>6.6030025482177707E-2</v>
+      </c>
+      <c r="D40">
+        <v>5.0047159194946199E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>0.16556501388549799</v>
+      </c>
+      <c r="C41">
+        <v>0.13255977630615201</v>
+      </c>
+      <c r="D41">
+        <v>5.1544904708862298E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>0.16482567787170399</v>
+      </c>
+      <c r="C42">
+        <v>0.134236335754394</v>
+      </c>
+      <c r="D42">
+        <v>5.3386211395263602E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>0.16878771781921301</v>
+      </c>
+      <c r="C43">
+        <v>0.134496450424194</v>
+      </c>
+      <c r="D43">
+        <v>5.2960157394409103E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="H24" t="s">
-        <v>38</v>
+      <c r="B44" s="1">
+        <f>SUM(B4:B43)</f>
+        <v>6.8837921619415123</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ref="C44:D44" si="0">SUM(C4:C43)</f>
+        <v>3.426976919174189</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3060197830200182</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>